--- a/donnees.xlsx
+++ b/donnees.xlsx
@@ -1,207 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STEEVE\OneDrive\Documents\nump\ISSEA_ISE2\S_2\Challenge_Indabax\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BA495D-549F-496A-AE96-7519884B49D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuil2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Date_remplissage</t>
-  </si>
-  <si>
-    <t>Date_naiss</t>
-  </si>
-  <si>
-    <t>Niveau_d'etude</t>
-  </si>
-  <si>
-    <t>Genre_</t>
-  </si>
-  <si>
-    <t>Taille_</t>
-  </si>
-  <si>
-    <t>Poids</t>
-  </si>
-  <si>
-    <t>Situation_Matrimoniale_(SM)</t>
-  </si>
-  <si>
-    <t>Profession_</t>
-  </si>
-  <si>
-    <t>Arrondissement_de_résidence_</t>
-  </si>
-  <si>
-    <t>Quartier_de_Résidence_</t>
-  </si>
-  <si>
-    <t>Nationalité_</t>
-  </si>
-  <si>
-    <t>Religion_</t>
-  </si>
-  <si>
-    <t>A-t-il_(elle)_déjà_donné_le_sang_</t>
-  </si>
-  <si>
-    <t>Si_oui_preciser_la_date_du_dernier_don._</t>
-  </si>
-  <si>
-    <t>Taux_d’hémoglobine_</t>
-  </si>
-  <si>
-    <t>ÉLIGIBILITÉ_AU_DON.</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>Raison_indisponibilité__[Est_sous_anti-biothérapie__]</t>
-  </si>
-  <si>
-    <t>Raison_indisponibilité__[Taux_d’hémoglobine_bas_]</t>
-  </si>
-  <si>
-    <t>Raison_indisponibilité__[date_de_dernier_Don_&lt;_3_mois_]</t>
-  </si>
-  <si>
-    <t>Raison_indisponibilité__[IST_récente_(Exclu_VIH,_Hbs,_Hcv)]</t>
-  </si>
-  <si>
-    <t>Date_de_dernières_règles_(DDR)__</t>
-  </si>
-  <si>
-    <t>Raison_de_l’indisponibilité_de_la_femme_[La_DDR_est_mauvais_si_&lt;14_jour_avant_le_don]</t>
-  </si>
-  <si>
-    <t>Raison_de_l’indisponibilité_de_la_femme_[Allaitement_]</t>
-  </si>
-  <si>
-    <t>Raison_de_l’indisponibilité_de_la_femme_[A_accoucher_ces_6_derniers_mois__]</t>
-  </si>
-  <si>
-    <t>Raison_de_l’indisponibilité_de_la_femme_[Interruption_de_grossesse__ces_06_derniers_mois]</t>
-  </si>
-  <si>
-    <t>Raison_de_l’indisponibilité_de_la_femme_[est_enceinte_]</t>
-  </si>
-  <si>
-    <t>Autre_raisons,__preciser_</t>
-  </si>
-  <si>
-    <t>Raison_de_non-eligibilité_totale__[Antécédent_de_transfusion]</t>
-  </si>
-  <si>
-    <t>Raison_de_non-eligibilité_totale__[Porteur(HIV,hbs,hcv)]</t>
-  </si>
-  <si>
-    <t>Raison_de_non-eligibilité_totale__[Opéré]</t>
-  </si>
-  <si>
-    <t>Raison_de_non-eligibilité_totale__[Drepanocytaire]</t>
-  </si>
-  <si>
-    <t>Raison_de_non-eligibilité_totale__[Diabétique]</t>
-  </si>
-  <si>
-    <t>Raison_de_non-eligibilité_totale__[Hypertendus]</t>
-  </si>
-  <si>
-    <t>Raison_de_non-eligibilité_totale__[Asthmatiques]</t>
-  </si>
-  <si>
-    <t>Raison_de_non-eligibilité_totale__[Cardiaque]</t>
-  </si>
-  <si>
-    <t>Raison_de_non-eligibilité_totale__[Tatoué]</t>
-  </si>
-  <si>
-    <t>Horodateur</t>
-  </si>
-  <si>
-    <t>Sexe</t>
-  </si>
-  <si>
-    <t>Type de donation</t>
-  </si>
-  <si>
-    <t>Groupe Sanguin ABO / Rhesus</t>
-  </si>
-  <si>
-    <t>Phenotype</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFCE9178"/>
       <name val="Centaur"/>
       <family val="1"/>
+      <color rgb="FFCE9178"/>
+      <sz val="12"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -242,56 +96,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -579,188 +492,468 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU1"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD36"/>
+      <selection activeCell="A2" sqref="A2:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="9" customWidth="1"/>
-    <col min="5" max="6" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="47" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col width="13.5546875" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="13.5546875" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="13.5546875" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="13.5546875" customWidth="1" style="9" min="4" max="4"/>
+    <col width="13.5546875" bestFit="1" customWidth="1" style="5" min="5" max="6"/>
+    <col width="13.5546875" bestFit="1" customWidth="1" style="6" min="7" max="8"/>
+    <col width="13.5546875" bestFit="1" customWidth="1" style="5" min="9" max="15"/>
+    <col width="13.5546875" bestFit="1" customWidth="1" style="7" min="16" max="16"/>
+    <col width="13.5546875" bestFit="1" customWidth="1" style="6" min="17" max="17"/>
+    <col width="13.5546875" bestFit="1" customWidth="1" style="5" min="18" max="18"/>
+    <col width="13.5546875" bestFit="1" customWidth="1" style="8" min="19" max="20"/>
+    <col width="13.5546875" bestFit="1" customWidth="1" style="5" min="21" max="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
+    <row r="1" ht="20.25" customHeight="1" s="5">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Date_remplissage</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Date_naiss</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Niveau_d'etude</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Genre_</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Taille_</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Poids</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Situation_Matrimoniale_(SM)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Profession_</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Arrondissement_de_résidence_</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Quartier_de_Résidence_</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Nationalité_</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Religion_</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>A-t-il_(elle)_déjà_donné_le_sang_</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="inlineStr">
+        <is>
+          <t>Si_oui_preciser_la_date_du_dernier_don._</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>Taux_d’hémoglobine_</t>
+        </is>
+      </c>
+      <c r="R1" s="10" t="inlineStr">
+        <is>
+          <t>ÉLIGIBILITÉ_AU_DON.</t>
+        </is>
+      </c>
+      <c r="S1" s="4" t="inlineStr">
+        <is>
+          <t>latitude</t>
+        </is>
+      </c>
+      <c r="T1" s="4" t="inlineStr">
+        <is>
+          <t>longitude</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Raison_indisponibilité__[Est_sous_anti-biothérapie__]</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Raison_indisponibilité__[Taux_d’hémoglobine_bas_]</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Raison_indisponibilité__[date_de_dernier_Don_&lt;_3_mois_]</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Raison_indisponibilité__[IST_récente_(Exclu_VIH,_Hbs,_Hcv)]</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Date_de_dernières_règles_(DDR)__</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Raison_de_l’indisponibilité_de_la_femme_[La_DDR_est_mauvais_si_&lt;14_jour_avant_le_don]</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Raison_de_l’indisponibilité_de_la_femme_[Allaitement_]</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Raison_de_l’indisponibilité_de_la_femme_[A_accoucher_ces_6_derniers_mois__]</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Raison_de_l’indisponibilité_de_la_femme_[Interruption_de_grossesse__ces_06_derniers_mois]</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Raison_de_l’indisponibilité_de_la_femme_[est_enceinte_]</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Autre_raisons,__preciser_</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Raison_de_non-eligibilité_totale__[Antécédent_de_transfusion]</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Raison_de_non-eligibilité_totale__[Porteur(HIV,hbs,hcv)]</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Raison_de_non-eligibilité_totale__[Opéré]</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Raison_de_non-eligibilité_totale__[Drepanocytaire]</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Raison_de_non-eligibilité_totale__[Diabétique]</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Raison_de_non-eligibilité_totale__[Hypertendus]</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Raison_de_non-eligibilité_totale__[Asthmatiques]</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Raison_de_non-eligibilité_totale__[Cardiaque]</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Raison_de_non-eligibilité_totale__[Tatoué]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DONOR_2</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2004-04-16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Primary</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Homme</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" t="n">
+        <v>60</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Douala 5</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Bonamoussadi, Bonagang, Douala V, Communauté urbaine de Douala, Wouri, Littoral, Cameroun</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Cameroun</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Christianity</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="n">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Définitivement non-eligible</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>4.094354</v>
+      </c>
+      <c r="T2" t="n">
+        <v>9.7393663</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>['Porteur VIH, hépatite B ou C']</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>44</v>
+    <row r="1" ht="18.75" customFormat="1" customHeight="1" s="9">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>Horodateur</t>
+        </is>
+      </c>
+      <c r="B1" s="12" t="inlineStr">
+        <is>
+          <t>Sexe</t>
+        </is>
+      </c>
+      <c r="C1" s="13" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="D1" s="12" t="inlineStr">
+        <is>
+          <t>Type de donation</t>
+        </is>
+      </c>
+      <c r="E1" s="12" t="inlineStr">
+        <is>
+          <t>Groupe Sanguin ABO / Rhesus</t>
+        </is>
+      </c>
+      <c r="F1" s="12" t="inlineStr">
+        <is>
+          <t>Phenotype</t>
+        </is>
       </c>
     </row>
   </sheetData>
